--- a/Проект/провода блет.xlsx
+++ b/Проект/провода блет.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\docrepo\Проект\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docrepo\Проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7E8C73-C02A-4CE0-9306-1AD7F8476C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,23 +242,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -295,23 +277,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -487,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -736,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Проект/провода блет.xlsx
+++ b/Проект/провода блет.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docrepo\Проект\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\docrepo\Проект\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94CF445-1AA7-4FC9-9BF1-7919E8E5C9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>№ кабеля</t>
   </si>
@@ -39,12 +40,18 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t xml:space="preserve">13 860,31 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +63,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -133,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -149,6 +163,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -242,6 +259,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -277,6 +311,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -452,16 +503,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="3" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="6" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="3"/>
+    <col min="8" max="8" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="3"/>
+    <col min="10" max="10" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -643,6 +702,9 @@
       <c r="B13" s="5">
         <v>4</v>
       </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -660,26 +722,59 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="5">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F17" s="9">
+        <v>6297</v>
+      </c>
+      <c r="J17" s="8">
+        <v>24297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f>SUM(B2:B17)</f>
         <v>146.90000000000003</v>
+      </c>
+      <c r="F18" s="9">
+        <v>19445</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="J18" s="7">
+        <f>J17*F13</f>
+        <v>364455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="7">
+        <f>SUM(F17:F18)</f>
+        <v>25742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="7">
+        <f>F19*F13</f>
+        <v>386130</v>
+      </c>
+      <c r="H20" s="3">
+        <f>SUM(D16,F20,J18)</f>
+        <v>750585</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -701,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
